--- a/excel/finished/焦化45/CK45-炼焦-5#焦炉加热制度报表（日）.xlsx
+++ b/excel/finished/焦化45/CK45-炼焦-5#焦炉加热制度报表（日）.xlsx
@@ -360,7 +360,7 @@
     <t>CK45_L1_R_CI5BFGCokeSideAcc_1m_avg</t>
   </si>
   <si>
-    <t>CK45_L1_R_CIPT_12_2_1m_avg</t>
+    <t>CK45_L1_R_CI2PT_01_1_1m_avg</t>
   </si>
   <si>
     <t>CK45_L1_R_CIPI_02_1_1m_avg</t>
@@ -813,7 +813,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -945,37 +945,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
@@ -1016,6 +985,65 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1084,7 +1112,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="81">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1242,55 +1270,70 @@
     <xf fontId="17" fillId="0" borderId="6" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="18" fillId="0" borderId="6" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="17" fillId="0" borderId="10" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="16" fillId="0" borderId="11" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="16" fillId="0" borderId="11" numFmtId="160" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="16" fillId="0" borderId="12" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="0" borderId="14" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="7" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="15" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="7" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="15" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="18" fillId="0" borderId="7" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="18" fillId="0" borderId="15" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="19" fillId="0" borderId="10" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="19" fillId="0" borderId="16" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="19" fillId="0" borderId="11" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="19" fillId="0" borderId="0" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="19" fillId="0" borderId="12" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="19" fillId="0" borderId="17" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="13" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="10" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="14" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="11" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="14" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="11" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="15" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="12" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="18" fillId="0" borderId="16" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="18" fillId="0" borderId="18" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="17" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="19" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="18" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="20" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="19" fillId="0" borderId="19" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="19" fillId="0" borderId="21" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf fontId="19" fillId="0" borderId="1" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="19" fillId="0" borderId="20" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="19" fillId="0" borderId="22" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5236,16 +5279,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>600074</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:rowOff>238123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>600074</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:rowOff>238123</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5256,7 +5299,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7247890" y="942340"/>
+          <a:off x="5143499" y="942973"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5780,11 +5823,13 @@
     <col min="3" max="6" style="1" width="9"/>
     <col min="7" max="7" style="2" width="9"/>
     <col min="8" max="8" style="1" width="9"/>
-    <col customWidth="1" min="9" max="9" style="2" width="10.08203125"/>
-    <col min="10" max="10" style="1" width="9"/>
-    <col customWidth="1" min="11" max="11" style="2" width="10.08203125"/>
-    <col min="12" max="12" style="1" width="9"/>
-    <col min="13" max="36" style="2" width="9"/>
+    <col customWidth="1" hidden="1" min="9" max="9" style="2" width="10.08203125"/>
+    <col customWidth="1" hidden="1" min="10" max="10" style="1" width="0"/>
+    <col customWidth="1" hidden="1" min="11" max="11" style="2" width="10.08203125"/>
+    <col customWidth="1" hidden="1" min="12" max="12" style="1" width="0"/>
+    <col min="13" max="26" style="2" width="9"/>
+    <col customWidth="1" hidden="1" min="27" max="28" style="2" width="0"/>
+    <col min="29" max="36" style="2" width="9"/>
     <col customWidth="1" min="37" max="37" style="2" width="10.83203125"/>
     <col min="38" max="38" style="2" width="9"/>
     <col customWidth="1" hidden="1" min="39" max="47" style="2" width="0"/>
@@ -6419,7 +6464,7 @@
       <c r="AU8" s="30"/>
       <c r="AV8" s="38"/>
     </row>
-    <row ht="18" hidden="1" r="9">
+    <row ht="17.25" hidden="1" r="9">
       <c r="B9" s="23" t="s">
         <v>61</v>
       </c>
@@ -15742,39 +15787,39 @@
         <v/>
       </c>
       <c r="D60" s="49" t="str">
-        <f>IFERROR(D27-D11,"")</f>
+        <f>IFERROR(IF(D11&gt;D27,D27,D27-D11),"")</f>
         <v/>
       </c>
       <c r="E60" s="48" t="str">
         <f>IF(E12="","",AVERAGE(E12:E27))</f>
         <v/>
       </c>
-      <c r="F60" s="50" t="str">
-        <f>IFERROR(F27-F11,"")</f>
+      <c r="F60" s="49" t="str">
+        <f>IFERROR(IF(F11&gt;F27,F27,F27-F11),"")</f>
         <v/>
       </c>
       <c r="G60" s="48" t="str">
         <f>IF(G12="","",AVERAGE(G12:G27))</f>
         <v/>
       </c>
-      <c r="H60" s="50" t="str">
-        <f>IFERROR(H27-H11,"")</f>
+      <c r="H60" s="49" t="str">
+        <f>IFERROR(IF(H11&gt;H27,H27,H27-H11),"")</f>
         <v/>
       </c>
       <c r="I60" s="48" t="str">
         <f>IF(I12="","",AVERAGE(I12:I27))</f>
         <v/>
       </c>
-      <c r="J60" s="50" t="str">
-        <f>IFERROR(J27-J11,"")</f>
+      <c r="J60" s="49" t="str">
+        <f>IFERROR(IF(J11&gt;J27,J27,J27-J11),"")</f>
         <v/>
       </c>
       <c r="K60" s="48" t="str">
         <f>IF(K12="","",AVERAGE(K12:K27))</f>
         <v/>
       </c>
-      <c r="L60" s="50" t="str">
-        <f>IFERROR(L27-L11,"")</f>
+      <c r="L60" s="49" t="str">
+        <f>IFERROR(IF(L11&gt;L27,L27,L27-L11),"")</f>
         <v/>
       </c>
       <c r="M60" s="48" t="str">
@@ -15935,7 +15980,7 @@
         <f>IF(E28="","",AVERAGE(E28:E43))</f>
         <v/>
       </c>
-      <c r="F61" s="50" t="str">
+      <c r="F61" s="49" t="str">
         <f>IFERROR(F43-F27,"")</f>
         <v/>
       </c>
@@ -15943,7 +15988,7 @@
         <f>IF(G28="","",AVERAGE(G28:G43))</f>
         <v/>
       </c>
-      <c r="H61" s="50" t="str">
+      <c r="H61" s="49" t="str">
         <f>IFERROR(H43-H27,"")</f>
         <v/>
       </c>
@@ -15951,7 +15996,7 @@
         <f>IF(I28="","",AVERAGE(I28:I43))</f>
         <v/>
       </c>
-      <c r="J61" s="50" t="str">
+      <c r="J61" s="49" t="str">
         <f>IFERROR(J43-J27,"")</f>
         <v/>
       </c>
@@ -15959,7 +16004,7 @@
         <f>IF(K28="","",AVERAGE(K28:K43))</f>
         <v/>
       </c>
-      <c r="L61" s="50" t="str">
+      <c r="L61" s="49" t="str">
         <f>IFERROR(L43-L27,"")</f>
         <v/>
       </c>
@@ -16121,7 +16166,7 @@
         <f>IF(E44="","",AVERAGE(E44:E59))</f>
         <v/>
       </c>
-      <c r="F62" s="50" t="str">
+      <c r="F62" s="49" t="str">
         <f>IFERROR(F59-F43,"")</f>
         <v/>
       </c>
@@ -16129,7 +16174,7 @@
         <f>IF(G44="","",AVERAGE(G44:G59))</f>
         <v/>
       </c>
-      <c r="H62" s="50" t="str">
+      <c r="H62" s="49" t="str">
         <f>IFERROR(H59-H43,"")</f>
         <v/>
       </c>
@@ -16137,7 +16182,7 @@
         <f>IF(I44="","",AVERAGE(I44:I59))</f>
         <v/>
       </c>
-      <c r="J62" s="50" t="str">
+      <c r="J62" s="49" t="str">
         <f>IFERROR(J59-J43,"")</f>
         <v/>
       </c>
@@ -16145,7 +16190,7 @@
         <f>IF(K44="","",AVERAGE(K44:K59))</f>
         <v/>
       </c>
-      <c r="L62" s="50" t="str">
+      <c r="L62" s="49" t="str">
         <f>IFERROR(L59-L43,"")</f>
         <v/>
       </c>
@@ -16292,303 +16337,303 @@
       <c r="AV62" s="38"/>
     </row>
     <row ht="20.149999999999999" customHeight="1" r="63">
-      <c r="B63" s="52" t="s">
+      <c r="B63" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="48" t="str">
+      <c r="C63" s="54" t="str">
         <f>IF(C12="","",AVERAGE(C12:C59))</f>
         <v/>
       </c>
-      <c r="D63" s="49" t="str">
-        <f>IFERROR(D59-D11,"")</f>
-        <v/>
-      </c>
-      <c r="E63" s="48" t="str">
+      <c r="D63" s="55" t="str">
+        <f>IFERROR(IF((D59-D11)&gt;10,D59-D11,D59),"")</f>
+        <v/>
+      </c>
+      <c r="E63" s="54" t="str">
         <f>IF(E12="","",AVERAGE(E12:E59))</f>
         <v/>
       </c>
-      <c r="F63" s="50" t="str">
-        <f>IFERROR(F59-F11,"")</f>
-        <v/>
-      </c>
-      <c r="G63" s="48" t="str">
+      <c r="F63" s="55" t="str">
+        <f>IFERROR(IF((F59-F11)&gt;10,F59-F11,F59),"")</f>
+        <v/>
+      </c>
+      <c r="G63" s="54" t="str">
         <f>IF(G12="","",AVERAGE(G12:G59))</f>
         <v/>
       </c>
-      <c r="H63" s="50" t="str">
-        <f>IFERROR(H59-H11,"")</f>
-        <v/>
-      </c>
-      <c r="I63" s="48" t="str">
+      <c r="H63" s="55" t="str">
+        <f>IFERROR(IF((H59-H11)&gt;10,H59-H11,H59),"")</f>
+        <v/>
+      </c>
+      <c r="I63" s="54" t="str">
         <f>IF(I12="","",AVERAGE(I12:I59))</f>
         <v/>
       </c>
-      <c r="J63" s="50" t="str">
-        <f>IFERROR(J59-J11,"")</f>
-        <v/>
-      </c>
-      <c r="K63" s="48" t="str">
+      <c r="J63" s="55" t="str">
+        <f>IFERROR(IF((J59-J11)&gt;10,J59-J11,J59),"")</f>
+        <v/>
+      </c>
+      <c r="K63" s="54" t="str">
         <f>IF(K12="","",AVERAGE(K12:K59))</f>
         <v/>
       </c>
-      <c r="L63" s="50" t="str">
-        <f>IFERROR(L59-L11,"")</f>
-        <v/>
-      </c>
-      <c r="M63" s="48" t="str">
+      <c r="L63" s="55" t="str">
+        <f>IFERROR(IF((L59-L11)&gt;10,L59-L11,L59),"")</f>
+        <v/>
+      </c>
+      <c r="M63" s="54" t="str">
         <f>IF(M12="","",AVERAGE(M12:M59))</f>
         <v/>
       </c>
-      <c r="N63" s="48" t="str">
+      <c r="N63" s="54" t="str">
         <f>IF(N12="","",AVERAGE(N12:N59))</f>
         <v/>
       </c>
-      <c r="O63" s="48" t="str">
+      <c r="O63" s="54" t="str">
         <f>IF(O12="","",AVERAGE(O12:O59))</f>
         <v/>
       </c>
-      <c r="P63" s="48" t="str">
+      <c r="P63" s="54" t="str">
         <f>IF(P12="","",AVERAGE(P12:P59))</f>
         <v/>
       </c>
-      <c r="Q63" s="48" t="str">
+      <c r="Q63" s="54" t="str">
         <f>IF(Q12="","",AVERAGE(Q12:Q59))</f>
         <v/>
       </c>
-      <c r="R63" s="48" t="str">
+      <c r="R63" s="54" t="str">
         <f>IF(R12="","",AVERAGE(R12:R59))</f>
         <v/>
       </c>
-      <c r="S63" s="48" t="str">
+      <c r="S63" s="54" t="str">
         <f>IF(S12="","",AVERAGE(S12:S59))</f>
         <v/>
       </c>
-      <c r="T63" s="48" t="str">
+      <c r="T63" s="54" t="str">
         <f>IF(T12="","",AVERAGE(T12:T59))</f>
         <v/>
       </c>
-      <c r="U63" s="48" t="str">
+      <c r="U63" s="54" t="str">
         <f>IF(U12="","",AVERAGE(U12:U59))</f>
         <v/>
       </c>
-      <c r="V63" s="48" t="str">
+      <c r="V63" s="54" t="str">
         <f>IF(V12="","",AVERAGE(V12:V59))</f>
         <v/>
       </c>
-      <c r="W63" s="48" t="str">
+      <c r="W63" s="54" t="str">
         <f>IF(W12="","",AVERAGE(W12:W59))</f>
         <v/>
       </c>
-      <c r="X63" s="48" t="str">
+      <c r="X63" s="54" t="str">
         <f>IF(X12="","",AVERAGE(X12:X59))</f>
         <v/>
       </c>
-      <c r="Y63" s="48" t="str">
+      <c r="Y63" s="54" t="str">
         <f>IF(Y12="","",AVERAGE(Y12:Y59))</f>
         <v/>
       </c>
-      <c r="Z63" s="48" t="str">
+      <c r="Z63" s="54" t="str">
         <f>IF(Z12="","",AVERAGE(Z12:Z59))</f>
         <v/>
       </c>
-      <c r="AA63" s="48" t="str">
+      <c r="AA63" s="54" t="str">
         <f>IF(AA12="","",AVERAGE(AA12:AA59))</f>
         <v/>
       </c>
-      <c r="AB63" s="48" t="str">
+      <c r="AB63" s="54" t="str">
         <f>IF(AB12="","",AVERAGE(AB12:AB59))</f>
         <v/>
       </c>
-      <c r="AC63" s="48" t="str">
+      <c r="AC63" s="54" t="str">
         <f>IF(AC12="","",AVERAGE(AC12:AC59))</f>
         <v/>
       </c>
-      <c r="AD63" s="48" t="str">
+      <c r="AD63" s="54" t="str">
         <f>IF(AD12="","",AVERAGE(AD12:AD59))</f>
         <v/>
       </c>
-      <c r="AE63" s="48" t="str">
+      <c r="AE63" s="54" t="str">
         <f>IF(AE12="","",AVERAGE(AE12:AE59))</f>
         <v/>
       </c>
-      <c r="AF63" s="48" t="str">
+      <c r="AF63" s="54" t="str">
         <f>IF(AF12="","",AVERAGE(AF12:AF59))</f>
         <v/>
       </c>
-      <c r="AG63" s="48" t="str">
+      <c r="AG63" s="54" t="str">
         <f>IF(AG12="","",AVERAGE(AG12:AG59))</f>
         <v/>
       </c>
-      <c r="AH63" s="48" t="str">
+      <c r="AH63" s="54" t="str">
         <f>IF(AH12="","",AVERAGE(AH12:AH59))</f>
         <v/>
       </c>
-      <c r="AI63" s="48" t="str">
+      <c r="AI63" s="54" t="str">
         <f>IF(AI12="","",AVERAGE(AI12:AI59))</f>
         <v/>
       </c>
-      <c r="AJ63" s="48" t="str">
+      <c r="AJ63" s="54" t="str">
         <f>IF(AJ12="","",AVERAGE(AJ12:AJ59))</f>
         <v/>
       </c>
-      <c r="AK63" s="48" t="str">
+      <c r="AK63" s="54" t="str">
         <f>IF(AK12="","",AVERAGE(AK12:AK59))</f>
         <v/>
       </c>
-      <c r="AL63" s="48" t="str">
+      <c r="AL63" s="54" t="str">
         <f>IF(AL12="","",AVERAGE(AL12:AL59))</f>
         <v/>
       </c>
-      <c r="AM63" s="48" t="str">
+      <c r="AM63" s="54" t="str">
         <f>IF(AM12="","",AVERAGE(AM12:AM59))</f>
         <v/>
       </c>
-      <c r="AN63" s="48" t="str">
+      <c r="AN63" s="54" t="str">
         <f>IF(AN12="","",AVERAGE(AN12:AN59))</f>
         <v/>
       </c>
-      <c r="AO63" s="48" t="str">
+      <c r="AO63" s="54" t="str">
         <f>IF(AO12="","",AVERAGE(AO12:AO59))</f>
         <v/>
       </c>
-      <c r="AP63" s="48" t="str">
+      <c r="AP63" s="54" t="str">
         <f>IF(AP12="","",AVERAGE(AP12:AP59))</f>
         <v/>
       </c>
-      <c r="AQ63" s="48" t="str">
+      <c r="AQ63" s="54" t="str">
         <f>IF(AQ12="","",AVERAGE(AQ12:AQ59))</f>
         <v/>
       </c>
-      <c r="AR63" s="48" t="str">
+      <c r="AR63" s="54" t="str">
         <f>IF(AR12="","",AVERAGE(AR12:AR59))</f>
         <v/>
       </c>
-      <c r="AS63" s="48" t="str">
+      <c r="AS63" s="54" t="str">
         <f>IF(AS12="","",AVERAGE(AS12:AS59))</f>
         <v/>
       </c>
-      <c r="AT63" s="48" t="str">
+      <c r="AT63" s="54" t="str">
         <f>IF(AT12="","",AVERAGE(AT12:AT59))</f>
         <v/>
       </c>
-      <c r="AU63" s="51" t="str">
+      <c r="AU63" s="56" t="str">
         <f>IF(AU12="","",AVERAGE(AU12:AU59))</f>
         <v/>
       </c>
-      <c r="AV63" s="38"/>
+      <c r="AV63" s="57"/>
     </row>
     <row ht="87.650000000000006" customHeight="1" r="64">
-      <c r="B64" s="53" t="s">
+      <c r="B64" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="C64" s="54"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="54"/>
-      <c r="K64" s="55"/>
-      <c r="L64" s="54"/>
-      <c r="M64" s="56" t="s">
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="59"/>
+      <c r="K64" s="60"/>
+      <c r="L64" s="59"/>
+      <c r="M64" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="N64" s="55"/>
-      <c r="O64" s="55"/>
-      <c r="P64" s="55"/>
-      <c r="Q64" s="55"/>
-      <c r="R64" s="55"/>
-      <c r="S64" s="55"/>
-      <c r="T64" s="55"/>
-      <c r="U64" s="55"/>
-      <c r="V64" s="55"/>
-      <c r="W64" s="55"/>
-      <c r="X64" s="56" t="s">
+      <c r="N64" s="60"/>
+      <c r="O64" s="60"/>
+      <c r="P64" s="60"/>
+      <c r="Q64" s="60"/>
+      <c r="R64" s="60"/>
+      <c r="S64" s="60"/>
+      <c r="T64" s="60"/>
+      <c r="U64" s="60"/>
+      <c r="V64" s="60"/>
+      <c r="W64" s="60"/>
+      <c r="X64" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="Y64" s="55"/>
-      <c r="Z64" s="55"/>
-      <c r="AA64" s="55"/>
-      <c r="AB64" s="55"/>
-      <c r="AC64" s="55"/>
-      <c r="AD64" s="55"/>
-      <c r="AE64" s="55"/>
-      <c r="AF64" s="55"/>
-      <c r="AG64" s="55"/>
-      <c r="AH64" s="55"/>
-      <c r="AI64" s="57"/>
-      <c r="AJ64" s="58"/>
-      <c r="AK64" s="58"/>
-      <c r="AL64" s="58"/>
-      <c r="AM64" s="58"/>
-      <c r="AN64" s="58"/>
-      <c r="AO64" s="58"/>
-      <c r="AP64" s="58"/>
-      <c r="AQ64" s="58"/>
-      <c r="AR64" s="58"/>
-      <c r="AS64" s="58"/>
-      <c r="AT64" s="58"/>
-      <c r="AU64" s="58"/>
-      <c r="AV64" s="59"/>
+      <c r="Y64" s="60"/>
+      <c r="Z64" s="60"/>
+      <c r="AA64" s="60"/>
+      <c r="AB64" s="60"/>
+      <c r="AC64" s="60"/>
+      <c r="AD64" s="60"/>
+      <c r="AE64" s="60"/>
+      <c r="AF64" s="60"/>
+      <c r="AG64" s="60"/>
+      <c r="AH64" s="60"/>
+      <c r="AI64" s="62"/>
+      <c r="AJ64" s="63"/>
+      <c r="AK64" s="63"/>
+      <c r="AL64" s="63"/>
+      <c r="AM64" s="63"/>
+      <c r="AN64" s="63"/>
+      <c r="AO64" s="63"/>
+      <c r="AP64" s="63"/>
+      <c r="AQ64" s="63"/>
+      <c r="AR64" s="63"/>
+      <c r="AS64" s="63"/>
+      <c r="AT64" s="63"/>
+      <c r="AU64" s="63"/>
+      <c r="AV64" s="64"/>
     </row>
     <row ht="27.75" customHeight="1" r="65">
-      <c r="B65" s="60" t="s">
+      <c r="B65" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="62"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="62"/>
-      <c r="J65" s="61"/>
-      <c r="K65" s="62"/>
-      <c r="L65" s="63"/>
-      <c r="M65" s="64" t="s">
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="67"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="67"/>
+      <c r="L65" s="68"/>
+      <c r="M65" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="N65" s="65"/>
-      <c r="O65" s="65"/>
-      <c r="P65" s="65"/>
-      <c r="Q65" s="65"/>
-      <c r="R65" s="65"/>
-      <c r="S65" s="65"/>
-      <c r="T65" s="65"/>
-      <c r="U65" s="65"/>
-      <c r="V65" s="65"/>
-      <c r="W65" s="65"/>
-      <c r="X65" s="64" t="s">
+      <c r="N65" s="70"/>
+      <c r="O65" s="70"/>
+      <c r="P65" s="70"/>
+      <c r="Q65" s="70"/>
+      <c r="R65" s="70"/>
+      <c r="S65" s="70"/>
+      <c r="T65" s="70"/>
+      <c r="U65" s="70"/>
+      <c r="V65" s="70"/>
+      <c r="W65" s="70"/>
+      <c r="X65" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="Y65" s="65"/>
-      <c r="Z65" s="65"/>
-      <c r="AA65" s="65"/>
-      <c r="AB65" s="65"/>
-      <c r="AC65" s="65"/>
-      <c r="AD65" s="65"/>
-      <c r="AE65" s="65"/>
-      <c r="AF65" s="65"/>
-      <c r="AG65" s="65"/>
-      <c r="AH65" s="66"/>
-      <c r="AI65" s="67"/>
-      <c r="AJ65" s="68"/>
-      <c r="AK65" s="68"/>
-      <c r="AL65" s="68"/>
-      <c r="AM65" s="68"/>
-      <c r="AN65" s="68"/>
-      <c r="AO65" s="68"/>
-      <c r="AP65" s="68"/>
-      <c r="AQ65" s="68"/>
-      <c r="AR65" s="68"/>
-      <c r="AS65" s="68"/>
-      <c r="AT65" s="68"/>
-      <c r="AU65" s="68"/>
-      <c r="AV65" s="69"/>
+      <c r="Y65" s="70"/>
+      <c r="Z65" s="70"/>
+      <c r="AA65" s="70"/>
+      <c r="AB65" s="70"/>
+      <c r="AC65" s="70"/>
+      <c r="AD65" s="70"/>
+      <c r="AE65" s="70"/>
+      <c r="AF65" s="70"/>
+      <c r="AG65" s="70"/>
+      <c r="AH65" s="71"/>
+      <c r="AI65" s="72"/>
+      <c r="AJ65" s="73"/>
+      <c r="AK65" s="73"/>
+      <c r="AL65" s="73"/>
+      <c r="AM65" s="73"/>
+      <c r="AN65" s="73"/>
+      <c r="AO65" s="73"/>
+      <c r="AP65" s="73"/>
+      <c r="AQ65" s="73"/>
+      <c r="AR65" s="73"/>
+      <c r="AS65" s="73"/>
+      <c r="AT65" s="73"/>
+      <c r="AU65" s="73"/>
+      <c r="AV65" s="74"/>
     </row>
     <row r="66">
-      <c r="C66" s="70"/>
+      <c r="C66" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -20668,37 +20713,37 @@
       <c r="AJ1" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="74" t="s">
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="AU1" s="73" t="s">
+      <c r="AU1" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="AV1" s="73" t="s">
+      <c r="AV1" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="AW1" s="73" t="s">
+      <c r="AW1" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="AY1" s="73" t="s">
+      <c r="AY1" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="AZ1" s="73" t="s">
+      <c r="AZ1" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="BA1" s="73" t="s">
+      <c r="BA1" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="BB1" s="73" t="s">
+      <c r="BB1" s="78" t="s">
         <v>115</v>
       </c>
     </row>
@@ -21014,7 +21059,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row ht="15.5" r="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="80" t="s">
         <v>116</v>
       </c>
       <c r="B1" s="0">
